--- a/data/trans_orig/P14C12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C12-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68FEB9DB-9FDF-4236-9A92-014738F7D9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFC6BB4C-83FB-4B2B-971F-02E96D2A5321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{51A66CA4-9738-489F-AEBB-66B310CEA243}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2274344D-FBAE-4B71-A745-C4EC6B5B6234}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -128,10 +128,10 @@
     <t>62,28%</t>
   </si>
   <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
   </si>
   <si>
     <t>66,81%</t>
@@ -140,19 +140,19 @@
     <t>63,58%</t>
   </si>
   <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
   </si>
   <si>
     <t>37,72%</t>
   </si>
   <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -161,10 +161,10 @@
     <t>26,86%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -176,7 +176,7 @@
     <t>9,56%</t>
   </si>
   <si>
-    <t>38,58%</t>
+    <t>46,9%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -251,10 +251,10 @@
     <t>67,69%</t>
   </si>
   <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>61,18%</t>
@@ -269,19 +269,19 @@
     <t>64,94%</t>
   </si>
   <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
   </si>
   <si>
     <t>27,33%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
   </si>
   <si>
     <t>20,76%</t>
@@ -296,13 +296,13 @@
     <t>24,55%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
   </si>
   <si>
     <t>18,07%</t>
@@ -317,10 +317,10 @@
     <t>10,51%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -735,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC47C02-39F0-44E9-BF72-F5B5630F18CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5386A593-43DE-4CFC-AE56-0E257A3298F6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C12-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFC6BB4C-83FB-4B2B-971F-02E96D2A5321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D105D880-38F8-4D27-9D32-CDBF21FE8365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2274344D-FBAE-4B71-A745-C4EC6B5B6234}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5ACB8DDC-DE6C-4D49-85B0-D42AF2168A4C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="96">
-  <si>
-    <t>Población según el tiempo de diagnóstico de angina de pecho en 2015 (Tasa respuesta: 0,65%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="97">
+  <si>
+    <t>Población según el tiempo de diagnóstico de angina de pecho en 2016 (Tasa respuesta: 0,65%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -128,10 +128,10 @@
     <t>62,28%</t>
   </si>
   <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
   </si>
   <si>
     <t>66,81%</t>
@@ -140,19 +140,19 @@
     <t>63,58%</t>
   </si>
   <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>37,72%</t>
   </si>
   <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -161,10 +161,10 @@
     <t>26,86%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -176,7 +176,7 @@
     <t>9,56%</t>
   </si>
   <si>
-    <t>46,9%</t>
+    <t>38,45%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -185,142 +185,145 @@
     <t>80,83%</t>
   </si>
   <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
   <si>
     <t>74,01%</t>
   </si>
   <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
   </si>
   <si>
     <t>77,73%</t>
   </si>
   <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
   </si>
   <si>
     <t>19,17%</t>
   </si>
   <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
+    <t>28,73%</t>
   </si>
   <si>
     <t>18,07%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -735,7 +738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5386A593-43DE-4CFC-AE56-0E257A3298F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811B4EB7-9CA9-43DB-881E-4592091E6F23}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2149,13 +2152,13 @@
         <v>1301</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2164,13 +2167,13 @@
         <v>3466</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -2179,13 +2182,13 @@
         <v>4767</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,7 +2244,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
